--- a/Project Resource Reports.xlsx
+++ b/Project Resource Reports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="130">
   <si>
     <t>From Date</t>
   </si>
@@ -23,7 +23,10 @@
     <t>Allocation</t>
   </si>
   <si>
-    <t>09-08-2024</t>
+    <t>13-08-2024</t>
+  </si>
+  <si>
+    <t>15-08-2024</t>
   </si>
   <si>
     <t>Allocated</t>
@@ -565,42 +568,42 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -608,19 +611,19 @@
         <v>55.0</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" t="n">
         <v>25.0</v>
@@ -634,19 +637,19 @@
         <v>55.0</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" t="n">
         <v>75.0</v>
@@ -660,19 +663,19 @@
         <v>160.0</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" t="n">
         <v>25.0</v>
@@ -686,19 +689,19 @@
         <v>230.0</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" t="n">
         <v>50.0</v>
@@ -712,19 +715,19 @@
         <v>224.0</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" t="n">
         <v>25.0</v>
@@ -738,19 +741,19 @@
         <v>184.0</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" t="n">
         <v>25.0</v>
@@ -764,19 +767,19 @@
         <v>184.0</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" t="n">
         <v>50.0</v>
@@ -790,19 +793,19 @@
         <v>70.0</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12" t="n">
         <v>100.0</v>
@@ -816,22 +819,22 @@
         <v>17.0</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I13" t="n">
         <v>50.0</v>
@@ -845,19 +848,19 @@
         <v>17.0</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I14" t="n">
         <v>25.0</v>
@@ -871,19 +874,19 @@
         <v>17.0</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
@@ -897,19 +900,19 @@
         <v>56.0</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I16" t="n">
         <v>25.0</v>
@@ -923,19 +926,19 @@
         <v>56.0</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I17" t="n">
         <v>25.0</v>
@@ -949,19 +952,19 @@
         <v>217.0</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I18" t="n">
         <v>25.0</v>
@@ -975,19 +978,19 @@
         <v>206.0</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
         <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
       </c>
       <c r="I19" t="n">
         <v>25.0</v>
@@ -1001,19 +1004,19 @@
         <v>248.0</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20" t="n">
         <v>25.0</v>
@@ -1027,19 +1030,19 @@
         <v>248.0</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
         <v>46</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
       </c>
       <c r="I21" t="n">
         <v>25.0</v>
@@ -1053,19 +1056,19 @@
         <v>174.0</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I22" t="n">
         <v>25.0</v>
@@ -1079,19 +1082,19 @@
         <v>13.0</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
         <v>51</v>
-      </c>
-      <c r="G23" t="s">
-        <v>50</v>
       </c>
       <c r="I23" t="n">
         <v>25.0</v>
@@ -1105,19 +1108,19 @@
         <v>87.0</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I24" t="n">
         <v>25.0</v>
@@ -1131,19 +1134,19 @@
         <v>87.0</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
         <v>55</v>
-      </c>
-      <c r="G25" t="s">
-        <v>54</v>
       </c>
       <c r="I25" t="n">
         <v>75.0</v>
@@ -1157,19 +1160,19 @@
         <v>60.0</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I26" t="n">
         <v>25.0</v>
@@ -1183,19 +1186,19 @@
         <v>256.0</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I27" t="n">
         <v>25.0</v>
@@ -1209,19 +1212,19 @@
         <v>225.0</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I28" t="n">
         <v>25.0</v>
@@ -1235,19 +1238,19 @@
         <v>166.0</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I29" t="n">
         <v>25.0</v>
@@ -1261,19 +1264,19 @@
         <v>41.0</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" t="s">
         <v>64</v>
-      </c>
-      <c r="G30" t="s">
-        <v>63</v>
       </c>
       <c r="I30" t="n">
         <v>25.0</v>
@@ -1287,19 +1290,19 @@
         <v>41.0</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I31" t="n">
         <v>25.0</v>
@@ -1313,22 +1316,22 @@
         <v>57.0</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
         <v>51</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
       </c>
       <c r="I32" t="n">
         <v>25.0</v>
@@ -1342,22 +1345,22 @@
         <v>57.0</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I33" t="n">
         <v>25.0</v>
@@ -1371,19 +1374,19 @@
         <v>57.0</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I34" t="n">
         <v>25.0</v>
@@ -1397,19 +1400,19 @@
         <v>129.0</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
         <v>18</v>
       </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" t="n">
         <v>25.0</v>
@@ -1423,19 +1426,19 @@
         <v>500.0</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I36" t="n">
         <v>100.0</v>
@@ -1449,19 +1452,19 @@
         <v>91.0</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" t="s">
         <v>64</v>
-      </c>
-      <c r="G37" t="s">
-        <v>63</v>
       </c>
       <c r="I37" t="n">
         <v>25.0</v>
@@ -1475,19 +1478,19 @@
         <v>117.0</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
       <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" t="s">
         <v>34</v>
       </c>
-      <c r="F38" t="s">
-        <v>33</v>
-      </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I38" t="n">
         <v>25.0</v>
@@ -1501,19 +1504,19 @@
         <v>97.0</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I39" t="n">
         <v>25.0</v>
@@ -1527,19 +1530,19 @@
         <v>97.0</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I40" t="n">
         <v>50.0</v>
@@ -1553,25 +1556,25 @@
         <v>54.0</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" t="s">
         <v>83</v>
-      </c>
-      <c r="H41" t="s">
-        <v>82</v>
       </c>
       <c r="I41" t="n">
         <v>25.0</v>
@@ -1585,19 +1588,19 @@
         <v>54.0</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I42" t="n">
         <v>75.0</v>
@@ -1611,19 +1614,19 @@
         <v>191.0</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" t="s">
         <v>86</v>
-      </c>
-      <c r="G43" t="s">
-        <v>85</v>
       </c>
       <c r="I43" t="n">
         <v>25.0</v>
@@ -1637,19 +1640,19 @@
         <v>191.0</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I44" t="n">
         <v>25.0</v>
@@ -1663,19 +1666,19 @@
         <v>213.0</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I45" t="n">
         <v>25.0</v>
@@ -1689,22 +1692,22 @@
         <v>71.0</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I46" t="n">
         <v>25.0</v>
@@ -1718,19 +1721,19 @@
         <v>79.0</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" t="s">
         <v>98</v>
-      </c>
-      <c r="G47" t="s">
-        <v>97</v>
       </c>
       <c r="I47" t="n">
         <v>25.0</v>
@@ -1744,22 +1747,22 @@
         <v>79.0</v>
       </c>
       <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" t="s">
         <v>96</v>
-      </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" t="s">
-        <v>93</v>
-      </c>
-      <c r="G48" t="s">
-        <v>94</v>
-      </c>
-      <c r="H48" t="s">
-        <v>95</v>
       </c>
       <c r="I48" t="n">
         <v>50.0</v>
@@ -1773,19 +1776,19 @@
         <v>80.0</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I49" t="n">
         <v>75.0</v>
@@ -1799,19 +1802,19 @@
         <v>38.0</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I50" t="n">
         <v>50.0</v>
@@ -1825,19 +1828,19 @@
         <v>14.0</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I51" t="n">
         <v>25.0</v>
@@ -1851,19 +1854,19 @@
         <v>3.0</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I52" t="n">
         <v>75.0</v>
@@ -1877,22 +1880,22 @@
         <v>107.0</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I53" t="n">
         <v>25.0</v>
@@ -1906,19 +1909,19 @@
         <v>179.0</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I54" t="n">
         <v>25.0</v>
@@ -1932,19 +1935,19 @@
         <v>172.0</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
         <v>18</v>
       </c>
-      <c r="F55" t="s">
-        <v>17</v>
-      </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I55" t="n">
         <v>75.0</v>
@@ -1958,19 +1961,19 @@
         <v>66.0</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I56" t="n">
         <v>25.0</v>
@@ -1984,19 +1987,19 @@
         <v>66.0</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I57" t="n">
         <v>25.0</v>
@@ -2010,19 +2013,19 @@
         <v>66.0</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I58" t="n">
         <v>25.0</v>
@@ -2036,19 +2039,19 @@
         <v>39.0</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I59" t="n">
         <v>25.0</v>
@@ -2062,19 +2065,19 @@
         <v>28.0</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I60" t="n">
         <v>75.0</v>
@@ -2088,25 +2091,25 @@
         <v>29.0</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F61" t="s">
+        <v>121</v>
+      </c>
+      <c r="G61" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" t="s">
         <v>120</v>
-      </c>
-      <c r="G61" t="s">
-        <v>94</v>
-      </c>
-      <c r="H61" t="s">
-        <v>119</v>
       </c>
       <c r="I61" t="n">
         <v>25.0</v>
@@ -2120,19 +2123,19 @@
         <v>29.0</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F62" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" t="s">
         <v>122</v>
-      </c>
-      <c r="G62" t="s">
-        <v>121</v>
       </c>
       <c r="I62" t="n">
         <v>25.0</v>
@@ -2146,19 +2149,19 @@
         <v>236.0</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I63" t="n">
         <v>100.0</v>
@@ -2172,19 +2175,19 @@
         <v>202.0</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" t="s">
         <v>51</v>
-      </c>
-      <c r="G64" t="s">
-        <v>50</v>
       </c>
       <c r="I64" t="n">
         <v>25.0</v>
@@ -2198,19 +2201,19 @@
         <v>968.0</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I65" t="n">
         <v>25.0</v>
@@ -2224,19 +2227,19 @@
         <v>968.0</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G66" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I66" t="n">
         <v>25.0</v>
